--- a/data/sample_mod.xlsx
+++ b/data/sample_mod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
   <si>
     <t>Časová značka</t>
   </si>
@@ -55,13 +55,73 @@
     <t>Ano</t>
   </si>
   <si>
+    <t>Band 19</t>
+  </si>
+  <si>
     <t>Žena</t>
   </si>
   <si>
     <t>Levoruký</t>
   </si>
   <si>
+    <t>Band 20</t>
+  </si>
+  <si>
+    <t>Band 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Band 13</t>
+  </si>
+  <si>
     <t>Ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Band 14</t>
+  </si>
+  <si>
+    <t>Band 18</t>
+  </si>
+  <si>
+    <t>Band 21</t>
+  </si>
+  <si>
+    <t>Band 17</t>
+  </si>
+  <si>
+    <t>Band 05</t>
+  </si>
+  <si>
+    <t>Band 12</t>
+  </si>
+  <si>
+    <t>Band 15</t>
+  </si>
+  <si>
+    <t>Band 22</t>
+  </si>
+  <si>
+    <t>Band 04</t>
+  </si>
+  <si>
+    <t>Band 10</t>
+  </si>
+  <si>
+    <t>Band 11</t>
+  </si>
+  <si>
+    <t>Band 03</t>
+  </si>
+  <si>
+    <t>Band 06</t>
+  </si>
+  <si>
+    <t>Band 08</t>
+  </si>
+  <si>
+    <t>Band 09</t>
+  </si>
+  <si>
+    <t>Band 23</t>
   </si>
 </sst>
 </file>
@@ -520,8 +580,8 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5">
-        <v>19</v>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
@@ -535,7 +595,7 @@
         <v>2013</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>129</v>
@@ -544,13 +604,13 @@
         <v>35.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5">
-        <v>20</v>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
@@ -564,7 +624,7 @@
         <v>2013</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4">
         <v>134</v>
@@ -578,8 +638,8 @@
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5">
-        <v>16</v>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
@@ -607,8 +667,8 @@
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5">
-        <v>13</v>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
@@ -622,7 +682,7 @@
         <v>2012</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>139</v>
@@ -634,10 +694,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
@@ -651,7 +711,7 @@
         <v>2012</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4">
         <v>150</v>
@@ -660,13 +720,13 @@
         <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5">
-        <v>18</v>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
@@ -694,8 +754,8 @@
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5">
-        <v>21</v>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
@@ -709,7 +769,7 @@
         <v>2012</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4">
         <v>136</v>
@@ -723,8 +783,8 @@
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5">
-        <v>17</v>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
@@ -738,7 +798,7 @@
         <v>2013</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4">
         <v>125</v>
@@ -752,8 +812,8 @@
       <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="5">
-        <v>5</v>
+      <c r="I10" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
@@ -767,7 +827,7 @@
         <v>2012</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4">
         <v>146</v>
@@ -779,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
@@ -796,7 +856,7 @@
         <v>2011</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4">
         <v>150</v>
@@ -808,10 +868,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
@@ -839,8 +899,8 @@
       <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="5">
-        <v>22</v>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
@@ -854,7 +914,7 @@
         <v>2013</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4">
         <v>128</v>
@@ -868,8 +928,8 @@
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="5">
-        <v>4</v>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
@@ -883,7 +943,7 @@
         <v>2011</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4">
         <v>137</v>
@@ -897,8 +957,8 @@
       <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="5">
-        <v>10</v>
+      <c r="I15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
@@ -921,13 +981,13 @@
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="5">
-        <v>11</v>
+      <c r="I16" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
@@ -941,7 +1001,7 @@
         <v>2012</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4">
         <v>138</v>
@@ -953,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="5">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
@@ -970,7 +1030,7 @@
         <v>2012</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4">
         <v>136</v>
@@ -984,8 +1044,8 @@
       <c r="H18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="5">
-        <v>6</v>
+      <c r="I18" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
@@ -999,7 +1059,7 @@
         <v>2011</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4">
         <v>143</v>
@@ -1013,8 +1073,8 @@
       <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="5">
-        <v>8</v>
+      <c r="I19" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
@@ -1042,8 +1102,8 @@
       <c r="H20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="5">
-        <v>9</v>
+      <c r="I20" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
@@ -1066,13 +1126,13 @@
         <v>31</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="4">
-        <v>23</v>
+      <c r="I21" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
